--- a/Q3andQ4/Classified result4.xlsx
+++ b/Q3andQ4/Classified result4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8715"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="6675" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1">
         <v>1</v>
@@ -425,10 +425,10 @@
         <v>1</v>
       </c>
       <c r="W1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y1">
         <v>1</v>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="BA1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB1">
         <v>2</v>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="BY1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ1">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="CB1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC1">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="CJ1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CK1">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="CQ1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CR1">
         <v>1</v>
@@ -749,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="EA1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EB1">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>2</v>
       </c>
       <c r="FB1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FC1">
         <v>2</v>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="FK1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FL1">
         <v>2</v>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="FZ1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GA1">
         <v>2</v>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="GJ1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GK1">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="GR1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GS1">
         <v>2</v>
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="HX1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HY1">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="KB1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="KC1">
         <v>2</v>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="KM1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="KN1">
         <v>2</v>
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="KV1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="KW1">
         <v>1</v>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="MB1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="MC1">
         <v>2</v>
@@ -1391,13 +1391,13 @@
         <v>1</v>
       </c>
       <c r="MG1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="MH1">
         <v>2</v>
       </c>
       <c r="MI1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="MJ1">
         <v>1</v>
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="NJ1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="NK1">
         <v>1</v>
@@ -1517,13 +1517,13 @@
         <v>1</v>
       </c>
       <c r="NW1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="NX1">
         <v>1</v>
       </c>
       <c r="NY1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="NZ1">
         <v>2</v>
@@ -1532,19 +1532,19 @@
         <v>2</v>
       </c>
       <c r="OB1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="OC1">
         <v>2</v>
       </c>
       <c r="OD1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="OE1">
         <v>1</v>
       </c>
       <c r="OF1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="OG1">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="OL1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="OM1">
         <v>2</v>
@@ -1595,16 +1595,16 @@
         <v>2</v>
       </c>
       <c r="OW1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="OX1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="OY1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="OZ1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="PA1">
         <v>2</v>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="PD1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="PE1">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>2</v>
       </c>
       <c r="PK1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="PL1">
         <v>1</v>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="PO1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="PP1">
         <v>1</v>
@@ -1709,7 +1709,7 @@
         <v>2</v>
       </c>
       <c r="QI1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="QJ1">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="SN1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="SO1">
         <v>1</v>
@@ -1982,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="TV1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="TW1">
         <v>2</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="UD1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="UE1">
         <v>2</v>
@@ -2021,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="UI1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="UJ1">
         <v>2</v>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="UT1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="UU1">
         <v>1</v>
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="VB1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="VC1">
         <v>1</v>
@@ -2093,13 +2093,13 @@
         <v>1</v>
       </c>
       <c r="VG1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="VH1">
         <v>1</v>
       </c>
       <c r="VI1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="VJ1">
         <v>2</v>
@@ -2153,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="WA1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="WB1">
         <v>1</v>
@@ -2186,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="WL1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="WM1">
         <v>2</v>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="WT1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="WU1">
         <v>2</v>
@@ -2300,13 +2300,13 @@
         <v>2</v>
       </c>
       <c r="XX1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="XY1">
         <v>1</v>
       </c>
       <c r="XZ1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="YA1">
         <v>1</v>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="YT1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="YU1">
         <v>1</v>
@@ -2441,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="ZS1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ZT1">
         <v>2</v>
@@ -2468,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="AAB1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AAC1">
         <v>2</v>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="ACY1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ACZ1">
         <v>1</v>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="ADB1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="ADC1">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>2</v>
       </c>
       <c r="AFX1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AFY1">
         <v>2</v>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="AGK1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AGL1">
         <v>2</v>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="AHD1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AHE1">
         <v>1</v>
@@ -3032,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="AHH1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AHI1">
         <v>2</v>
@@ -3101,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="AIE1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AIF1">
         <v>1</v>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="AIJ1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AIK1">
         <v>1</v>
@@ -3176,7 +3176,7 @@
         <v>2</v>
       </c>
       <c r="AJD1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJE1">
         <v>1</v>
@@ -3206,7 +3206,7 @@
         <v>2</v>
       </c>
       <c r="AJN1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJO1">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="AJW1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJX1">
         <v>1</v>
@@ -3257,13 +3257,13 @@
         <v>2</v>
       </c>
       <c r="AKE1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AKF1">
         <v>1</v>
       </c>
       <c r="AKG1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AKH1">
         <v>1</v>
